--- a/biology/Botanique/Billbergia_zebrina/Billbergia_zebrina.xlsx
+++ b/biology/Botanique/Billbergia_zebrina/Billbergia_zebrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Billbergia zebrina est une espèce de plantes à fleurs de la famille des Bromeliaceae originaire d'Amérique du Sud.
 </t>
@@ -511,16 +523,18 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anacyclia farinosa Hoffmanns.[1] ;
-Billbergia canterae André[1] ;
-Billbergia farinosa (Hoffmanns.) Baker[1] ;
-Bromelia zebrina Herb.[1] ;
-Cremobotrys zebrina (Herb.) Beer ex B.D.Jacks.[1] ;
-Eucallias versicolor Raf.[1] ;
-Helicodea zebrina (Herb.) Lem.[1].
+Anacyclia farinosa Hoffmanns. ;
+Billbergia canterae André ;
+Billbergia farinosa (Hoffmanns.) Baker ;
+Bromelia zebrina Herb. ;
+Cremobotrys zebrina (Herb.) Beer ex B.D.Jacks. ;
+Eucallias versicolor Raf. ;
+Helicodea zebrina (Herb.) Lem..
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre au nord-est de l'Argentine, au sud et au sud-est du Brésil, au Paraguay et en Uruguay[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre au nord-est de l'Argentine, au sud et au sud-est du Brésil, au Paraguay et en Uruguay.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
